--- a/wcsm9automationproject/src/main/resources/TestData.xlsx
+++ b/wcsm9automationproject/src/main/resources/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Team</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>UK</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -550,6 +553,11 @@
         <v>22</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
